--- a/public/files/Data_By_Towns_Index/Middlesex/Metuchen Borough.xlsx
+++ b/public/files/Data_By_Towns_Index/Middlesex/Metuchen Borough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.5427411</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.3753798</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.541806</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.366618</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.5484077</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.3736258</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.5307425</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.3585114</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.54201870000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.36603439999999</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.5428447</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.348338</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.5331843</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.35468449999999</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.5423422</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.36630559999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.550958</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.37040709999999</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.5351307</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.3680454</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.5392178</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.3712329</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.5340347</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.3608603</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.5436203</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.36798349999999</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.540987</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.354089</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.5457881</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.3520091</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.5418886</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.35236069999999</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.5411252</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.3664174</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.54808610000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.37230959999999</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.5402852</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.34634419999999</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>40.5403002</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.3540965</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>40.5339988</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.3716163</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>40.5407873</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.3738903</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>40.5320279</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.368331</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Lakhani</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>40.5331531</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.3645566</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>40.541824</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.3690002</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>40.5398765</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.35269649999999</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>40.5394336</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.35227920000001</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>40.53786789999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.3502721</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>40.542046</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.3528766</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>40.5414813</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.3753699</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>40.54032979999999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.37338629999999</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>40.5312774</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.36625149999999</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>40.541093</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.35070209999999</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>40.54198299999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.3667581</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>40.5397833</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.3475892</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>40.541381</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.3662765</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>40.5365909</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.3707239</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>40.5396076</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.37391319999999</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>40.5351131</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.3602004</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>40.5365783</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.3636492</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>40.53877070000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.3631061</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>40.53877070000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.3631061</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>40.5480699</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.3616526</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>40.52954099999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.357095</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>40.5422502</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.3670944</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>40.5341617</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.3719881</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>40.548101</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.3703405</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>40.5306265</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.36941379999999</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>40.5399566</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.35818359999999</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>40.5426859</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.3658293</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>40.54272539999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.36587779999999</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>40.5437087</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.3614819</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>40.5426601</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.3488203</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>40.5411674</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.36647119999999</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>40.5498072</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.3654363</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>40.5459304</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.3645085</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>40.5339147</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.3505732</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>40.5348564</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.3672407</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>40.5305775</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.3585004</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>40.5433446</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.3491935</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>40.545047</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.35467799999999</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>40.5480335</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.3669129</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>40.5480335</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.3669129</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>40.5427239</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.3691876</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>40.5288778</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.35798150000001</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>40.5292834</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.3670669</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>40.5310851</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.3688767</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>40.5313085</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.36896300000001</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>40.54198179999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.37310599999999</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>40.5390412</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.3773298</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>40.5414341</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.3662013</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>40.5396533</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.3459495</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>40.5473638</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.366384</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>40.541791</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.3656245</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>40.5413651</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.36680269999999</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2354,9 +2819,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>40.5425805</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.3696233</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2379,9 +2850,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>40.5386664</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-74.37674679999999</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2404,9 +2881,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>40.5389523</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-74.37087369999999</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2429,9 +2912,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>40.5344022</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-74.3587015</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2454,9 +2943,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>40.5423509</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-74.3687216</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2479,9 +2974,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>40.5465147</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-74.35805739999999</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2504,9 +3005,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>40.5544286</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-74.35591530000001</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2529,9 +3036,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>40.5544286</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-74.35591530000001</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2554,9 +3067,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>40.5319795</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-74.36887849999999</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2579,9 +3098,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>40.5501365</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-74.371284</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2604,9 +3129,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>40.545505</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-74.3584511</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2629,9 +3160,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>40.5428088</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-74.37717959999999</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2654,9 +3191,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>40.541857</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-74.36613199999999</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2679,9 +3222,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>40.5319374</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-74.3657501</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2704,9 +3253,15 @@
           <t>Tailor</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>40.5466467</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-74.36123569999999</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2729,9 +3284,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>40.5376118</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-74.35522859999999</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2754,9 +3315,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>40.5361187</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-74.3691324</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2779,9 +3346,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>40.54700039999999</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-74.3546236</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2804,9 +3377,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>40.5390403</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-74.3495681</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2829,9 +3408,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>40.5394505</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-74.347104</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2854,9 +3439,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>40.5423657</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-74.3593582</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,9 +3470,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>40.5425302</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-74.37022499999999</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2904,9 +3501,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>40.5423123</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-74.37622689999999</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2929,9 +3532,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>40.5476813</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-74.36688099999999</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2954,9 +3563,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>40.5335262</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-74.351668</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2979,9 +3594,15 @@
           <t>Shroff</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>40.5539322</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-74.3488665</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -3004,9 +3625,15 @@
           <t>Virani</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>40.5346416</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-74.36725749999999</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -3029,9 +3656,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>40.5408912</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-74.35451470000001</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -3054,9 +3687,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>40.5497394</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-74.3610777</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -3079,9 +3718,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>40.5456195</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-74.35254809999999</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -3104,9 +3749,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>40.5421678</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-74.35420999999999</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -3129,9 +3780,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>40.5424325</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-74.3656599</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -3154,9 +3811,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>40.5364709</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-74.3649348</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -3178,6 +3841,12 @@
         <is>
           <t>Parikh</t>
         </is>
+      </c>
+      <c r="F110" t="n">
+        <v>40.5401239</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-74.3733989</v>
       </c>
     </row>
   </sheetData>
